--- a/natmiOut/OldD4/LR-pairs_lrc2p/Ntn4-Unc5a.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Ntn4-Unc5a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Unc5a</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.55143811221631</v>
+        <v>1.949617</v>
       </c>
       <c r="H2">
-        <v>1.55143811221631</v>
+        <v>5.848851</v>
       </c>
       <c r="I2">
-        <v>0.03911820362742226</v>
+        <v>0.04614692348379677</v>
       </c>
       <c r="J2">
-        <v>0.03911820362742226</v>
+        <v>0.06194431783080363</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.01408040936183</v>
+        <v>1.048521666666667</v>
       </c>
       <c r="N2">
-        <v>1.01408040936183</v>
+        <v>3.145565</v>
       </c>
       <c r="O2">
-        <v>0.1649391982778534</v>
+        <v>0.1554155979440307</v>
       </c>
       <c r="P2">
-        <v>0.1649391982778534</v>
+        <v>0.1656763860066786</v>
       </c>
       <c r="Q2">
-        <v>1.573282995935861</v>
+        <v>2.044215666201667</v>
       </c>
       <c r="R2">
-        <v>1.573282995935861</v>
+        <v>18.397940995815</v>
       </c>
       <c r="S2">
-        <v>0.006452125144376846</v>
+        <v>0.007171951706511708</v>
       </c>
       <c r="T2">
-        <v>0.006452125144376846</v>
+        <v>0.0102627107118566</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.55143811221631</v>
+        <v>1.949617</v>
       </c>
       <c r="H3">
-        <v>1.55143811221631</v>
+        <v>5.848851</v>
       </c>
       <c r="I3">
-        <v>0.03911820362742226</v>
+        <v>0.04614692348379677</v>
       </c>
       <c r="J3">
-        <v>0.03911820362742226</v>
+        <v>0.06194431783080363</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.83565344239407</v>
+        <v>2.269994</v>
       </c>
       <c r="N3">
-        <v>1.83565344239407</v>
+        <v>6.809982</v>
       </c>
       <c r="O3">
-        <v>0.2985672578913109</v>
+        <v>0.3364665567292637</v>
       </c>
       <c r="P3">
-        <v>0.2985672578913109</v>
+        <v>0.3586806206613224</v>
       </c>
       <c r="Q3">
-        <v>2.847902711351227</v>
+        <v>4.425618892298</v>
       </c>
       <c r="R3">
-        <v>2.847902711351227</v>
+        <v>39.830570030682</v>
       </c>
       <c r="S3">
-        <v>0.0116794147906734</v>
+        <v>0.0155268964482419</v>
       </c>
       <c r="T3">
-        <v>0.0116794147906734</v>
+        <v>0.02221822636599487</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.55143811221631</v>
+        <v>1.949617</v>
       </c>
       <c r="H4">
-        <v>1.55143811221631</v>
+        <v>5.848851</v>
       </c>
       <c r="I4">
-        <v>0.03911820362742226</v>
+        <v>0.04614692348379677</v>
       </c>
       <c r="J4">
-        <v>0.03911820362742226</v>
+        <v>0.06194431783080363</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.997310910714196</v>
+        <v>1.119509</v>
       </c>
       <c r="N4">
-        <v>0.997310910714196</v>
+        <v>3.358527</v>
       </c>
       <c r="O4">
-        <v>0.1622116555337796</v>
+        <v>0.165937592107037</v>
       </c>
       <c r="P4">
-        <v>0.1622116555337796</v>
+        <v>0.1768930591692914</v>
       </c>
       <c r="Q4">
-        <v>1.547266156611161</v>
+        <v>2.182613778053</v>
       </c>
       <c r="R4">
-        <v>1.547266156611161</v>
+        <v>19.643524002477</v>
       </c>
       <c r="S4">
-        <v>0.006345428571911667</v>
+        <v>0.007657509366048912</v>
       </c>
       <c r="T4">
-        <v>0.006345428571911667</v>
+        <v>0.01095751987924574</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.55143811221631</v>
+        <v>1.949617</v>
       </c>
       <c r="H5">
-        <v>1.55143811221631</v>
+        <v>5.848851</v>
       </c>
       <c r="I5">
-        <v>0.03911820362742226</v>
+        <v>0.04614692348379677</v>
       </c>
       <c r="J5">
-        <v>0.03911820362742226</v>
+        <v>0.06194431783080363</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.05152504146411</v>
+        <v>1.055042333333333</v>
       </c>
       <c r="N5">
-        <v>1.05152504146411</v>
+        <v>3.165127</v>
       </c>
       <c r="O5">
-        <v>0.1710295314918102</v>
+        <v>0.1563821142700266</v>
       </c>
       <c r="P5">
-        <v>0.1710295314918102</v>
+        <v>0.1667067132970263</v>
       </c>
       <c r="Q5">
-        <v>1.631376025277256</v>
+        <v>2.056928468786333</v>
       </c>
       <c r="R5">
-        <v>1.631376025277256</v>
+        <v>18.512356219077</v>
       </c>
       <c r="S5">
-        <v>0.00669036803919926</v>
+        <v>0.007216553461453279</v>
       </c>
       <c r="T5">
-        <v>0.00669036803919926</v>
+        <v>0.01032653363299965</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.55143811221631</v>
+        <v>1.949617</v>
       </c>
       <c r="H6">
-        <v>1.55143811221631</v>
+        <v>5.848851</v>
       </c>
       <c r="I6">
-        <v>0.03911820362742226</v>
+        <v>0.04614692348379677</v>
       </c>
       <c r="J6">
-        <v>0.03911820362742226</v>
+        <v>0.06194431783080363</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.24963765645086</v>
+        <v>1.2534995</v>
       </c>
       <c r="N6">
-        <v>1.24963765645086</v>
+        <v>2.506999</v>
       </c>
       <c r="O6">
-        <v>0.2032523568052459</v>
+        <v>0.185798138949642</v>
       </c>
       <c r="P6">
-        <v>0.2032523568052459</v>
+        <v>0.1320432208656814</v>
       </c>
       <c r="Q6">
-        <v>1.938735486678536</v>
+        <v>2.4438439346915</v>
       </c>
       <c r="R6">
-        <v>1.938735486678536</v>
+        <v>14.663063608149</v>
       </c>
       <c r="S6">
-        <v>0.007950867081261094</v>
+        <v>0.008574012501540969</v>
       </c>
       <c r="T6">
-        <v>0.007950867081261094</v>
+        <v>0.008179327240706771</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.56220799491748</v>
+        <v>7.771950333333334</v>
       </c>
       <c r="H7">
-        <v>7.56220799491748</v>
+        <v>23.315851</v>
       </c>
       <c r="I7">
-        <v>0.1906746971656564</v>
+        <v>0.183960027714265</v>
       </c>
       <c r="J7">
-        <v>0.1906746971656564</v>
+        <v>0.2469347372397862</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.01408040936183</v>
+        <v>1.048521666666667</v>
       </c>
       <c r="N7">
-        <v>1.01408040936183</v>
+        <v>3.145565</v>
       </c>
       <c r="O7">
-        <v>0.1649391982778534</v>
+        <v>0.1554155979440307</v>
       </c>
       <c r="P7">
-        <v>0.1649391982778534</v>
+        <v>0.1656763860066786</v>
       </c>
       <c r="Q7">
-        <v>7.668686979165222</v>
+        <v>8.149058316757223</v>
       </c>
       <c r="R7">
-        <v>7.668686979165222</v>
+        <v>73.34152485081502</v>
       </c>
       <c r="S7">
-        <v>0.03144973168237586</v>
+        <v>0.02859025770501296</v>
       </c>
       <c r="T7">
-        <v>0.03144973168237586</v>
+        <v>0.04091125484539657</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.56220799491748</v>
+        <v>7.771950333333334</v>
       </c>
       <c r="H8">
-        <v>7.56220799491748</v>
+        <v>23.315851</v>
       </c>
       <c r="I8">
-        <v>0.1906746971656564</v>
+        <v>0.183960027714265</v>
       </c>
       <c r="J8">
-        <v>0.1906746971656564</v>
+        <v>0.2469347372397862</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.83565344239407</v>
+        <v>2.269994</v>
       </c>
       <c r="N8">
-        <v>1.83565344239407</v>
+        <v>6.809982</v>
       </c>
       <c r="O8">
-        <v>0.2985672578913109</v>
+        <v>0.3364665567292637</v>
       </c>
       <c r="P8">
-        <v>0.2985672578913109</v>
+        <v>0.3586806206613224</v>
       </c>
       <c r="Q8">
-        <v>13.88159313797023</v>
+        <v>17.64228062496467</v>
       </c>
       <c r="R8">
-        <v>13.88159313797023</v>
+        <v>158.780525624682</v>
       </c>
       <c r="S8">
-        <v>0.05692922148200616</v>
+        <v>0.06189639710083866</v>
       </c>
       <c r="T8">
-        <v>0.05692922148200616</v>
+        <v>0.08857070481600708</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.56220799491748</v>
+        <v>7.771950333333334</v>
       </c>
       <c r="H9">
-        <v>7.56220799491748</v>
+        <v>23.315851</v>
       </c>
       <c r="I9">
-        <v>0.1906746971656564</v>
+        <v>0.183960027714265</v>
       </c>
       <c r="J9">
-        <v>0.1906746971656564</v>
+        <v>0.2469347372397862</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.997310910714196</v>
+        <v>1.119509</v>
       </c>
       <c r="N9">
-        <v>0.997310910714196</v>
+        <v>3.358527</v>
       </c>
       <c r="O9">
-        <v>0.1622116555337796</v>
+        <v>0.165937592107037</v>
       </c>
       <c r="P9">
-        <v>0.1622116555337796</v>
+        <v>0.1768930591692914</v>
       </c>
       <c r="Q9">
-        <v>7.541872542421325</v>
+        <v>8.700768345719668</v>
       </c>
       <c r="R9">
-        <v>7.541872542421325</v>
+        <v>78.30691511147701</v>
       </c>
       <c r="S9">
-        <v>0.0309296582956432</v>
+        <v>0.03052588404284892</v>
       </c>
       <c r="T9">
-        <v>0.0309296582956432</v>
+        <v>0.04368104108551093</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.56220799491748</v>
+        <v>7.771950333333334</v>
       </c>
       <c r="H10">
-        <v>7.56220799491748</v>
+        <v>23.315851</v>
       </c>
       <c r="I10">
-        <v>0.1906746971656564</v>
+        <v>0.183960027714265</v>
       </c>
       <c r="J10">
-        <v>0.1906746971656564</v>
+        <v>0.2469347372397862</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.05152504146411</v>
+        <v>1.055042333333333</v>
       </c>
       <c r="N10">
-        <v>1.05152504146411</v>
+        <v>3.165127</v>
       </c>
       <c r="O10">
-        <v>0.1710295314918102</v>
+        <v>0.1563821142700266</v>
       </c>
       <c r="P10">
-        <v>0.1710295314918102</v>
+        <v>0.1667067132970263</v>
       </c>
       <c r="Q10">
-        <v>7.951851075415827</v>
+        <v>8.19973661423078</v>
       </c>
       <c r="R10">
-        <v>7.951851075415827</v>
+        <v>73.79762952807701</v>
       </c>
       <c r="S10">
-        <v>0.03261100412358501</v>
+        <v>0.02876805807512944</v>
       </c>
       <c r="T10">
-        <v>0.03261100412358501</v>
+        <v>0.04116567844410956</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.56220799491748</v>
+        <v>7.771950333333334</v>
       </c>
       <c r="H11">
-        <v>7.56220799491748</v>
+        <v>23.315851</v>
       </c>
       <c r="I11">
-        <v>0.1906746971656564</v>
+        <v>0.183960027714265</v>
       </c>
       <c r="J11">
-        <v>0.1906746971656564</v>
+        <v>0.2469347372397862</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.24963765645086</v>
+        <v>1.2534995</v>
       </c>
       <c r="N11">
-        <v>1.24963765645086</v>
+        <v>2.506999</v>
       </c>
       <c r="O11">
-        <v>0.2032523568052459</v>
+        <v>0.185798138949642</v>
       </c>
       <c r="P11">
-        <v>0.2032523568052459</v>
+        <v>0.1320432208656814</v>
       </c>
       <c r="Q11">
-        <v>9.450019876362637</v>
+        <v>9.74213585685817</v>
       </c>
       <c r="R11">
-        <v>9.450019876362637</v>
+        <v>58.45281514114902</v>
       </c>
       <c r="S11">
-        <v>0.03875508158204621</v>
+        <v>0.034179430790435</v>
       </c>
       <c r="T11">
-        <v>0.03875508158204621</v>
+        <v>0.0326060580487621</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>30.5466135252573</v>
+        <v>0.1542573333333333</v>
       </c>
       <c r="H12">
-        <v>30.5466135252573</v>
+        <v>0.462772</v>
       </c>
       <c r="I12">
-        <v>0.7702070992069213</v>
+        <v>0.003651230656148292</v>
       </c>
       <c r="J12">
-        <v>0.7702070992069213</v>
+        <v>0.00490114996111145</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.01408040936183</v>
+        <v>1.048521666666667</v>
       </c>
       <c r="N12">
-        <v>1.01408040936183</v>
+        <v>3.145565</v>
       </c>
       <c r="O12">
-        <v>0.1649391982778534</v>
+        <v>0.1554155979440307</v>
       </c>
       <c r="P12">
-        <v>0.1649391982778534</v>
+        <v>0.1656763860066786</v>
       </c>
       <c r="Q12">
-        <v>30.97672234831054</v>
+        <v>0.1617421562422222</v>
       </c>
       <c r="R12">
-        <v>30.97672234831054</v>
+        <v>1.45567940618</v>
       </c>
       <c r="S12">
-        <v>0.1270373414511007</v>
+        <v>0.0005674581956568625</v>
       </c>
       <c r="T12">
-        <v>0.1270373414511007</v>
+        <v>0.0008120048128337182</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>30.5466135252573</v>
+        <v>0.1542573333333333</v>
       </c>
       <c r="H13">
-        <v>30.5466135252573</v>
+        <v>0.462772</v>
       </c>
       <c r="I13">
-        <v>0.7702070992069213</v>
+        <v>0.003651230656148292</v>
       </c>
       <c r="J13">
-        <v>0.7702070992069213</v>
+        <v>0.00490114996111145</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.83565344239407</v>
+        <v>2.269994</v>
       </c>
       <c r="N13">
-        <v>1.83565344239407</v>
+        <v>6.809982</v>
       </c>
       <c r="O13">
-        <v>0.2985672578913109</v>
+        <v>0.3364665567292637</v>
       </c>
       <c r="P13">
-        <v>0.2985672578913109</v>
+        <v>0.3586806206613224</v>
       </c>
       <c r="Q13">
-        <v>56.07299627111982</v>
+        <v>0.3501632211226667</v>
       </c>
       <c r="R13">
-        <v>56.07299627111982</v>
+        <v>3.151468990104</v>
       </c>
       <c r="S13">
-        <v>0.2299586216186314</v>
+        <v>0.001228517006698546</v>
       </c>
       <c r="T13">
-        <v>0.2299586216186314</v>
+        <v>0.001757947510005671</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>30.5466135252573</v>
+        <v>0.1542573333333333</v>
       </c>
       <c r="H14">
-        <v>30.5466135252573</v>
+        <v>0.462772</v>
       </c>
       <c r="I14">
-        <v>0.7702070992069213</v>
+        <v>0.003651230656148292</v>
       </c>
       <c r="J14">
-        <v>0.7702070992069213</v>
+        <v>0.00490114996111145</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.997310910714196</v>
+        <v>1.119509</v>
       </c>
       <c r="N14">
-        <v>0.997310910714196</v>
+        <v>3.358527</v>
       </c>
       <c r="O14">
-        <v>0.1622116555337796</v>
+        <v>0.165937592107037</v>
       </c>
       <c r="P14">
-        <v>0.1622116555337796</v>
+        <v>0.1768930591692914</v>
       </c>
       <c r="Q14">
-        <v>30.46447095410893</v>
+        <v>0.1726924729826667</v>
       </c>
       <c r="R14">
-        <v>30.46447095410893</v>
+        <v>1.554232256844</v>
       </c>
       <c r="S14">
-        <v>0.1249365686662247</v>
+        <v>0.0006058764233086443</v>
       </c>
       <c r="T14">
-        <v>0.1249365686662247</v>
+        <v>0.0008669794100684577</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>30.5466135252573</v>
+        <v>0.1542573333333333</v>
       </c>
       <c r="H15">
-        <v>30.5466135252573</v>
+        <v>0.462772</v>
       </c>
       <c r="I15">
-        <v>0.7702070992069213</v>
+        <v>0.003651230656148292</v>
       </c>
       <c r="J15">
-        <v>0.7702070992069213</v>
+        <v>0.00490114996111145</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.05152504146411</v>
+        <v>1.055042333333333</v>
       </c>
       <c r="N15">
-        <v>1.05152504146411</v>
+        <v>3.165127</v>
       </c>
       <c r="O15">
-        <v>0.1710295314918102</v>
+        <v>0.1563821142700266</v>
       </c>
       <c r="P15">
-        <v>0.1710295314918102</v>
+        <v>0.1667067132970263</v>
       </c>
       <c r="Q15">
-        <v>32.12052905373432</v>
+        <v>0.1627480168937778</v>
       </c>
       <c r="R15">
-        <v>32.12052905373432</v>
+        <v>1.464732152044</v>
       </c>
       <c r="S15">
-        <v>0.1317281593290259</v>
+        <v>0.0005709871696960064</v>
       </c>
       <c r="T15">
-        <v>0.1317281593290259</v>
+        <v>0.0008170546013927379</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.1542573333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.462772</v>
+      </c>
+      <c r="I16">
+        <v>0.003651230656148292</v>
+      </c>
+      <c r="J16">
+        <v>0.00490114996111145</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.2534995</v>
+      </c>
+      <c r="N16">
+        <v>2.506999</v>
+      </c>
+      <c r="O16">
+        <v>0.185798138949642</v>
+      </c>
+      <c r="P16">
+        <v>0.1320432208656814</v>
+      </c>
+      <c r="Q16">
+        <v>0.1933614902046667</v>
+      </c>
+      <c r="R16">
+        <v>1.160168941228</v>
+      </c>
+      <c r="S16">
+        <v>0.000678391860788233</v>
+      </c>
+      <c r="T16">
+        <v>0.000647163626810865</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.04920433333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.147613</v>
+      </c>
+      <c r="I17">
+        <v>0.001164653675775582</v>
+      </c>
+      <c r="J17">
+        <v>0.001563347499869362</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.048521666666667</v>
+      </c>
+      <c r="N17">
+        <v>3.145565</v>
+      </c>
+      <c r="O17">
+        <v>0.1554155979440307</v>
+      </c>
+      <c r="P17">
+        <v>0.1656763860066786</v>
+      </c>
+      <c r="Q17">
+        <v>0.05159180959388889</v>
+      </c>
+      <c r="R17">
+        <v>0.4643262863450001</v>
+      </c>
+      <c r="S17">
+        <v>0.0001810053474183755</v>
+      </c>
+      <c r="T17">
+        <v>0.0002590097638509323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.04920433333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.147613</v>
+      </c>
+      <c r="I18">
+        <v>0.001164653675775582</v>
+      </c>
+      <c r="J18">
+        <v>0.001563347499869362</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.269994</v>
+      </c>
+      <c r="N18">
+        <v>6.809982</v>
+      </c>
+      <c r="O18">
+        <v>0.3364665567292637</v>
+      </c>
+      <c r="P18">
+        <v>0.3586806206613224</v>
+      </c>
+      <c r="Q18">
+        <v>0.1116935414406667</v>
+      </c>
+      <c r="R18">
+        <v>1.005241872966</v>
+      </c>
+      <c r="S18">
+        <v>0.0003918670120702905</v>
+      </c>
+      <c r="T18">
+        <v>0.0005607424515624693</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.04920433333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.147613</v>
+      </c>
+      <c r="I19">
+        <v>0.001164653675775582</v>
+      </c>
+      <c r="J19">
+        <v>0.001563347499869362</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.119509</v>
+      </c>
+      <c r="N19">
+        <v>3.358527</v>
+      </c>
+      <c r="O19">
+        <v>0.165937592107037</v>
+      </c>
+      <c r="P19">
+        <v>0.1768930591692914</v>
+      </c>
+      <c r="Q19">
+        <v>0.05508469400566667</v>
+      </c>
+      <c r="R19">
+        <v>0.495762246051</v>
+      </c>
+      <c r="S19">
+        <v>0.0001932598265968099</v>
+      </c>
+      <c r="T19">
+        <v>0.0002765453217965548</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.04920433333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.147613</v>
+      </c>
+      <c r="I20">
+        <v>0.001164653675775582</v>
+      </c>
+      <c r="J20">
+        <v>0.001563347499869362</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.055042333333333</v>
+      </c>
+      <c r="N20">
+        <v>3.165127</v>
+      </c>
+      <c r="O20">
+        <v>0.1563821142700266</v>
+      </c>
+      <c r="P20">
+        <v>0.1667067132970263</v>
+      </c>
+      <c r="Q20">
+        <v>0.05191265465011111</v>
+      </c>
+      <c r="R20">
+        <v>0.467213891851</v>
+      </c>
+      <c r="S20">
+        <v>0.0001821310042101436</v>
+      </c>
+      <c r="T20">
+        <v>0.0002606205234443445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.04920433333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.147613</v>
+      </c>
+      <c r="I21">
+        <v>0.001164653675775582</v>
+      </c>
+      <c r="J21">
+        <v>0.001563347499869362</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.2534995</v>
+      </c>
+      <c r="N21">
+        <v>2.506999</v>
+      </c>
+      <c r="O21">
+        <v>0.185798138949642</v>
+      </c>
+      <c r="P21">
+        <v>0.1320432208656814</v>
+      </c>
+      <c r="Q21">
+        <v>0.06167760723116667</v>
+      </c>
+      <c r="R21">
+        <v>0.370065643387</v>
+      </c>
+      <c r="S21">
+        <v>0.000216390485479963</v>
+      </c>
+      <c r="T21">
+        <v>0.000206429439215061</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>32.3230095</v>
+      </c>
+      <c r="H22">
+        <v>64.646019</v>
+      </c>
+      <c r="I22">
+        <v>0.7650771644700144</v>
+      </c>
+      <c r="J22">
+        <v>0.6846564474684294</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1.048521666666667</v>
+      </c>
+      <c r="N22">
+        <v>3.145565</v>
+      </c>
+      <c r="O22">
+        <v>0.1554155979440307</v>
+      </c>
+      <c r="P22">
+        <v>0.1656763860066786</v>
+      </c>
+      <c r="Q22">
+        <v>33.8913757926225</v>
+      </c>
+      <c r="R22">
+        <v>203.348254755735</v>
+      </c>
+      <c r="S22">
+        <v>0.1189049249894308</v>
+      </c>
+      <c r="T22">
+        <v>0.1134314058727407</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>32.3230095</v>
+      </c>
+      <c r="H23">
+        <v>64.646019</v>
+      </c>
+      <c r="I23">
+        <v>0.7650771644700144</v>
+      </c>
+      <c r="J23">
+        <v>0.6846564474684294</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.269994</v>
+      </c>
+      <c r="N23">
+        <v>6.809982</v>
+      </c>
+      <c r="O23">
+        <v>0.3364665567292637</v>
+      </c>
+      <c r="P23">
+        <v>0.3586806206613224</v>
+      </c>
+      <c r="Q23">
+        <v>73.373037626943</v>
+      </c>
+      <c r="R23">
+        <v>440.2382257616579</v>
+      </c>
+      <c r="S23">
+        <v>0.2574228791614143</v>
+      </c>
+      <c r="T23">
+        <v>0.2455729995177523</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>30.5466135252573</v>
-      </c>
-      <c r="H16">
-        <v>30.5466135252573</v>
-      </c>
-      <c r="I16">
-        <v>0.7702070992069213</v>
-      </c>
-      <c r="J16">
-        <v>0.7702070992069213</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.24963765645086</v>
-      </c>
-      <c r="N16">
-        <v>1.24963765645086</v>
-      </c>
-      <c r="O16">
-        <v>0.2032523568052459</v>
-      </c>
-      <c r="P16">
-        <v>0.2032523568052459</v>
-      </c>
-      <c r="Q16">
-        <v>38.17219853821268</v>
-      </c>
-      <c r="R16">
-        <v>38.17219853821268</v>
-      </c>
-      <c r="S16">
-        <v>0.1565464081419386</v>
-      </c>
-      <c r="T16">
-        <v>0.1565464081419386</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>32.3230095</v>
+      </c>
+      <c r="H24">
+        <v>64.646019</v>
+      </c>
+      <c r="I24">
+        <v>0.7650771644700144</v>
+      </c>
+      <c r="J24">
+        <v>0.6846564474684294</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.119509</v>
+      </c>
+      <c r="N24">
+        <v>3.358527</v>
+      </c>
+      <c r="O24">
+        <v>0.165937592107037</v>
+      </c>
+      <c r="P24">
+        <v>0.1768930591692914</v>
+      </c>
+      <c r="Q24">
+        <v>36.1859000423355</v>
+      </c>
+      <c r="R24">
+        <v>217.115400254013</v>
+      </c>
+      <c r="S24">
+        <v>0.1269550624482337</v>
+      </c>
+      <c r="T24">
+        <v>0.1211109734726697</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>32.3230095</v>
+      </c>
+      <c r="H25">
+        <v>64.646019</v>
+      </c>
+      <c r="I25">
+        <v>0.7650771644700144</v>
+      </c>
+      <c r="J25">
+        <v>0.6846564474684294</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.055042333333333</v>
+      </c>
+      <c r="N25">
+        <v>3.165127</v>
+      </c>
+      <c r="O25">
+        <v>0.1563821142700266</v>
+      </c>
+      <c r="P25">
+        <v>0.1667067132970263</v>
+      </c>
+      <c r="Q25">
+        <v>34.1021433632355</v>
+      </c>
+      <c r="R25">
+        <v>204.612860179413</v>
+      </c>
+      <c r="S25">
+        <v>0.1196443845595377</v>
+      </c>
+      <c r="T25">
+        <v>0.11413682609508</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>32.3230095</v>
+      </c>
+      <c r="H26">
+        <v>64.646019</v>
+      </c>
+      <c r="I26">
+        <v>0.7650771644700144</v>
+      </c>
+      <c r="J26">
+        <v>0.6846564474684294</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.2534995</v>
+      </c>
+      <c r="N26">
+        <v>2.506999</v>
+      </c>
+      <c r="O26">
+        <v>0.185798138949642</v>
+      </c>
+      <c r="P26">
+        <v>0.1320432208656814</v>
+      </c>
+      <c r="Q26">
+        <v>40.51687624674526</v>
+      </c>
+      <c r="R26">
+        <v>162.067504986981</v>
+      </c>
+      <c r="S26">
+        <v>0.1421499133113978</v>
+      </c>
+      <c r="T26">
+        <v>0.09040424251018661</v>
       </c>
     </row>
   </sheetData>
